--- a/Documentation/ORS_BOM_v2.0.xlsx
+++ b/Documentation/ORS_BOM_v2.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/20-XX Rocker Switch/Publishing/Git/Open-Rocker-Switch/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/Server/AT Projects - Internal/Switches/LT6 Open Rocker Switch/Publishing/GitHub/Open-Rocker-Switch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D22CAC06-F5E3-466B-9B4A-6FB5D5A29C94}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EC0C1F3-AD2E-4CA6-BF37-FE186D14727B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="31095" yWindow="1920" windowWidth="14970" windowHeight="12900" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +163,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,18 +239,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -556,15 +570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B5EA6-04D3-4C00-9920-62DC7CC0CDC9}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -610,10 +624,10 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.76</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <f>D2*E2</f>
         <v>1.52</v>
       </c>
@@ -631,10 +645,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>12.99</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F8" si="0">D3*E3</f>
         <v>12.99</v>
       </c>
@@ -652,10 +666,10 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.42</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
@@ -678,10 +692,10 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -703,10 +717,10 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
@@ -728,10 +742,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>1.39</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>1.39</v>
       </c>
@@ -754,10 +768,10 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>1.38</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>1.38</v>
       </c>
@@ -774,7 +788,7 @@
       <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f>SUM(F2:F8)</f>
         <v>18.27</v>
       </c>
@@ -783,7 +797,7 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f>SUM(H4:H8)/60</f>
         <v>10.983333333333333</v>
       </c>
@@ -864,6 +878,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1c974e075ae6ad637ed0c9d0de986aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f8b78299b17ebfa6252ff38db7b045f" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1080,12 +1100,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C20929-9706-4FDF-B965-0C0BD832DE1B}">
   <ds:schemaRefs>
@@ -1095,6 +1109,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A331C459-C260-4B91-B402-A4499C47DB05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1111,13 +1134,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/ORS_BOM_v2.0.xlsx
+++ b/Documentation/ORS_BOM_v2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/Server/AT Projects - Internal/Switches/LT6 Open Rocker Switch/Publishing/GitHub/Open-Rocker-Switch/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EC0C1F3-AD2E-4CA6-BF37-FE186D14727B}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{017D642F-2CC5-40E5-82E3-47F0530C9941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5E2DC46-5EE2-4BEE-B786-1A381C19CFBC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6D4DD46-06D8-4EAA-B9BC-B4D672907BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Part</t>
   </si>
@@ -45,21 +45,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Quanity</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>Total Cost</t>
   </si>
   <si>
-    <t>Time to print in minutes</t>
-  </si>
-  <si>
-    <t>Total Time to print</t>
-  </si>
-  <si>
     <t>B3F-5050</t>
   </si>
   <si>
@@ -72,30 +63,15 @@
     <t>3.5 mm Mono Cable</t>
   </si>
   <si>
-    <t>10 ft 3.5 mm Mono Cable M/M</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/dp/B001O5F280/ref=twister_B07K2P67VR?_encoding=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>3D printed Part</t>
   </si>
   <si>
-    <t>All 3D printed parts prices are generated with 6 walls and support taken into account</t>
-  </si>
-  <si>
     <t>Rocker Bottom</t>
   </si>
   <si>
     <t>Rocker Top</t>
   </si>
   <si>
-    <t>Overall Cost for parts(CAD)</t>
-  </si>
-  <si>
-    <t>Overall Print Time(Hours)</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -138,10 +114,70 @@
     <t>Divider</t>
   </si>
   <si>
-    <t>Pin</t>
-  </si>
-  <si>
     <t>Button</t>
+  </si>
+  <si>
+    <t>6 ft 3.5 mm Mono Cable</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/short/z13fmc</t>
+  </si>
+  <si>
+    <t>Open-Rocker-Switch/ORS_Bottom.stl at main · makersmakingchange/Open-Rocker-Switch (github.com)</t>
+  </si>
+  <si>
+    <t>Open-Rocker-Switch/ORS_Top.stl at main · makersmakingchange/Open-Rocker-Switch (github.com)</t>
+  </si>
+  <si>
+    <t>Button Pin</t>
+  </si>
+  <si>
+    <t>Open-Rocker-Switch/ORS_Button_Pin.stl at main · makersmakingchange/Open-Rocker-Switch (github.com)</t>
+  </si>
+  <si>
+    <t>Open-Rocker-Switch/ORS_Divider.stl at main · makersmakingchange/Open-Rocker-Switch (github.com)</t>
+  </si>
+  <si>
+    <t>Open-Rocker-Switch/ORS_Button.stl at main · makersmakingchange/Open-Rocker-Switch (github.com)</t>
+  </si>
+  <si>
+    <t>Open Rocker Switch: Bill of Materials</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Extended Print Time</t>
+  </si>
+  <si>
+    <t>Print Time (Min)</t>
+  </si>
+  <si>
+    <t>Total filament</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version 2.0 </t>
+  </si>
+  <si>
+    <t>2020-Dec-12</t>
+  </si>
+  <si>
+    <t>Mass (g)</t>
+  </si>
+  <si>
+    <t>Total Print time (hr)</t>
+  </si>
+  <si>
+    <t>Total Mass (g)</t>
+  </si>
+  <si>
+    <t>Off-The-Shelf Parts</t>
+  </si>
+  <si>
+    <t>3D Printed Parts</t>
   </si>
 </sst>
 </file>
@@ -151,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +210,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Roboto Black"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +250,22 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,21 +319,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="5" builtinId="45"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,303 +660,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2B5EA6-04D3-4C00-9920-62DC7CC0CDC9}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="72.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7">
+        <f>SUM(F5:F14)</f>
+        <v>15.52</v>
+      </c>
+      <c r="H2" s="8">
+        <f>SUM(H10:H14)/60</f>
+        <v>10.983333333333333</v>
+      </c>
+      <c r="J2" s="11">
+        <f>SUM(J10:J14)</f>
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5*E5</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5.12</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:F14" si="0">D6*E6</f>
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
-        <v>0.76</v>
-      </c>
-      <c r="F2" s="5">
-        <f>D2*E2</f>
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>12.99</v>
-      </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F8" si="0">D3*E3</f>
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="E10" s="5">
         <v>0.42</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="G4">
+      <c r="G10">
         <f>(1*60)+53</f>
         <v>113</v>
       </c>
-      <c r="H4">
-        <f>D4*G4</f>
+      <c r="H10">
+        <f>D10*G10</f>
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J12" si="1">I10*D10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E11" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G5">
+      <c r="G11">
         <v>29</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H8" si="1">D5*G5</f>
+      <c r="H11">
+        <f t="shared" ref="H11:H14" si="2">D11*G11</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+      <c r="I11">
+        <v>4.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E12" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="G6">
+      <c r="G12">
         <v>1.5</v>
       </c>
-      <c r="H6">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E13" s="5">
         <v>1.39</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>1.39</v>
       </c>
-      <c r="G7">
+      <c r="G13">
         <f>(3*60)+18</f>
         <v>198</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <f>I13*D13</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E14" s="5">
         <v>1.38</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>1.38</v>
       </c>
-      <c r="G8">
+      <c r="G14">
         <f>(3*60)+23</f>
         <v>203</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f t="shared" si="2"/>
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5">
-        <f>SUM(F2:F8)</f>
-        <v>18.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6">
-        <f>SUM(H4:H8)/60</f>
-        <v>10.983333333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <f>I14*D14</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{24EF0B03-325A-46C9-B006-F77458F2C180}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB3DCAAA-3EB4-4F65-803C-79A0A4A136D8}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{24EF0B03-325A-46C9-B006-F77458F2C180}"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://github.com/makersmakingchange/Open-Rocker-Switch/blob/main/Build_Files/3D_Printing/ORS_Bottom.stl" xr:uid="{3FD23B88-EE5E-424C-828B-CF95E89960AD}"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://github.com/makersmakingchange/Open-Rocker-Switch/blob/main/Build_Files/3D_Printing/ORS_Top.stl" xr:uid="{1E3D4705-D104-4565-B6E1-161859EBC196}"/>
+    <hyperlink ref="C12" r:id="rId4" display="https://github.com/makersmakingchange/Open-Rocker-Switch/blob/main/Build_Files/3D_Printing/ORS_Button_Pin.stl" xr:uid="{A10AE21E-7942-4BA1-91F3-E4756E146242}"/>
+    <hyperlink ref="C11" r:id="rId5" display="https://github.com/makersmakingchange/Open-Rocker-Switch/blob/main/Build_Files/3D_Printing/ORS_Divider.stl" xr:uid="{4513EBB8-6F81-4E0D-BAD0-77A94A52A7B9}"/>
+    <hyperlink ref="C10" r:id="rId6" display="https://github.com/makersmakingchange/Open-Rocker-Switch/blob/main/Build_Files/3D_Printing/ORS_Button.stl" xr:uid="{4D2730AF-DA39-4D57-8CDD-62BC654E1471}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -878,12 +1082,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c1c974e075ae6ad637ed0c9d0de986aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f8b78299b17ebfa6252ff38db7b045f" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -1100,6 +1298,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C20929-9706-4FDF-B965-0C0BD832DE1B}">
   <ds:schemaRefs>
@@ -1109,15 +1313,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A331C459-C260-4B91-B402-A4499C47DB05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1134,4 +1329,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E4DB720-01A7-4588-988A-716B8A88F23D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>